--- a/xomics/_data/use_cases/Overview.xlsx
+++ b/xomics/_data/use_cases/Overview.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
   <si>
     <t xml:space="preserve">Dataset</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t xml:space="preserve">Internal Standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gProfiler_DEMYLINATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gene Enrichment</t>
   </si>
 </sst>
 </file>
@@ -196,10 +202,10 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
@@ -269,7 +275,21 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="4"/>
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="4"/>
